--- a/Template/Шаблон - НОР.xlsx
+++ b/Template/Шаблон - НОР.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user3\Desktop\Тираж 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaytsev_IS\Desktop\Обновленные шаблоны после тестирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8610" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,268 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Кондратьева Светлана (Kondrateva_SS)</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Наименование из справочника Наши организации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ФИО из справочника Сотрудники</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Целое число. Длина:  10 или 12 цифр</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Целое число. Длина: 9 цифр</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Целое число. Длина: 13 или 15 цифр</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Целое число. Длина: 8, 10 или 14 цифр</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование из справочника Населенные пункты</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование из справочника Регионы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Текстовое поле. Формат: &lt;логин&gt;@&lt;домен&gt;.&lt;зона&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Текстовое поле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Длина: от 8 до 34 символов. Для международных счетов допускается использование заглавных латинских букв (IBAN код).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Наименование из справочника Банки</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
@@ -85,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -98,11 +360,42 @@
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,23 +458,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA9D08E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -473,85 +784,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="9" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="11" width="21.140625" customWidth="1"/>
     <col min="12" max="16" width="25.42578125" customWidth="1"/>
     <col min="17" max="19" width="28.140625" customWidth="1"/>
     <col min="20" max="20" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -560,25 +872,20 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="T2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>